--- a/etc/ap242/EH_XML_Examples/OccurencesNb.xlsx
+++ b/etc/ap242/EH_XML_Examples/OccurencesNb.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="175">
   <si>
     <t>Occurrence</t>
   </si>
@@ -36,18 +36,12 @@
     <t>_201007</t>
   </si>
   <si>
-    <t>_201008</t>
-  </si>
-  <si>
     <t>end a</t>
   </si>
   <si>
     <t>end b</t>
   </si>
   <si>
-    <t>intermediate 1</t>
-  </si>
-  <si>
     <t>wire2</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>_201107</t>
   </si>
   <si>
-    <t>_201108</t>
-  </si>
-  <si>
     <t>cable1</t>
   </si>
   <si>
@@ -520,6 +511,36 @@
   </si>
   <si>
     <t>_311046-2</t>
+  </si>
+  <si>
+    <t>wire3</t>
+  </si>
+  <si>
+    <t>_201204</t>
+  </si>
+  <si>
+    <t>_201206</t>
+  </si>
+  <si>
+    <t>_201207</t>
+  </si>
+  <si>
+    <t>_311050-1</t>
+  </si>
+  <si>
+    <t>_311050-2</t>
+  </si>
+  <si>
+    <t>_311051-2</t>
+  </si>
+  <si>
+    <t>_311051-1 connected join to _311050</t>
+  </si>
+  <si>
+    <t>_311052-1</t>
+  </si>
+  <si>
+    <t>_311052-2</t>
   </si>
 </sst>
 </file>
@@ -857,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -879,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,40 +913,43 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="E6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -933,728 +957,751 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>155</v>
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>157</v>
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>136</v>
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
         <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>86</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
         <v>68</v>
       </c>
-      <c r="E42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>87</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D47" t="s">
         <v>69</v>
       </c>
-      <c r="E43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="E47" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D48" t="s">
         <v>70</v>
       </c>
-      <c r="E44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" t="s">
-        <v>136</v>
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>114</v>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D70" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" t="s">
-        <v>136</v>
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" t="s">
-        <v>124</v>
+      <c r="C72" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>127</v>
-      </c>
-      <c r="D73" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" t="s">
-        <v>136</v>
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>126</v>
       </c>
-      <c r="E74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>127</v>
-      </c>
-      <c r="D76" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" t="s">
         <v>128</v>
       </c>
-      <c r="D77" t="s">
-        <v>132</v>
-      </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
+      <c r="C78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/etc/ap242/EH_XML_Examples/OccurencesNb.xlsx
+++ b/etc/ap242/EH_XML_Examples/OccurencesNb.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="108" windowWidth="10056" windowHeight="8568"/>
+    <workbookView xWindow="672" yWindow="108" windowWidth="10056" windowHeight="8568" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Parts, terminals &amp; features" sheetId="4" r:id="rId1"/>
+    <sheet name="Assembly structures" sheetId="2" r:id="rId2"/>
+    <sheet name="OccurrenceTerminals&amp;Joins" sheetId="1" r:id="rId3"/>
+    <sheet name="geometry&amp;topology" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="219">
   <si>
     <t>Occurrence</t>
   </si>
@@ -24,9 +25,6 @@
     <t>wire1</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>_201004</t>
   </si>
   <si>
@@ -541,14 +539,156 @@
   </si>
   <si>
     <t>_311052-2</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Part_H1</t>
+  </si>
+  <si>
+    <t>ARINC 600 set</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>04034-22-9</t>
+  </si>
+  <si>
+    <t>_101000</t>
+  </si>
+  <si>
+    <t>_104000</t>
+  </si>
+  <si>
+    <t>16 AWG</t>
+  </si>
+  <si>
+    <t>Speaker wire</t>
+  </si>
+  <si>
+    <t>WIRE,ELEC,COMP,SNGL CONDUCTOR,150 DEG C</t>
+  </si>
+  <si>
+    <t>_102000</t>
+  </si>
+  <si>
+    <t>RG 58</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>_103000</t>
+  </si>
+  <si>
+    <t>MS5036-153</t>
+  </si>
+  <si>
+    <t>TERMINAL LUG CRIMP STYLE COPPER INSULATED RING TONGUE</t>
+  </si>
+  <si>
+    <t>terminal lug</t>
+  </si>
+  <si>
+    <t>_117000</t>
+  </si>
+  <si>
+    <t>_311000</t>
+  </si>
+  <si>
+    <t>Electrical Harness team reference example</t>
+  </si>
+  <si>
+    <t>wiring harness</t>
+  </si>
+  <si>
+    <t>Occurrence name</t>
+  </si>
+  <si>
+    <t>Part ID</t>
+  </si>
+  <si>
+    <t>ShapeElement</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category/type</t>
+  </si>
+  <si>
+    <t>_101003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   WireIdentification</t>
+  </si>
+  <si>
+    <t>_101020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CrossSectionalPartShapeElement</t>
+  </si>
+  <si>
+    <t>OccurrenceTerminal</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>_101002</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Representation</t>
+  </si>
+  <si>
+    <t>RepresentationItem</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>_321000</t>
+  </si>
+  <si>
+    <t>_321010</t>
+  </si>
+  <si>
+    <t>ConnectedEdgeWithLengthSetRepresentation</t>
+  </si>
+  <si>
+    <t>_321020</t>
+  </si>
+  <si>
+    <t>_321033</t>
+  </si>
+  <si>
+    <t>SubEdge</t>
+  </si>
+  <si>
+    <t>S2-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -575,8 +715,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,857 +1021,1253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="3"/>
+    <col min="4" max="4" width="64.5" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
       <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
       <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
       <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>124</v>
-      </c>
-      <c r="D71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E71" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" t="s">
-        <v>119</v>
-      </c>
-      <c r="E72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>124</v>
-      </c>
-      <c r="D74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>125</v>
-      </c>
-      <c r="D75" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>124</v>
-      </c>
-      <c r="D77" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>125</v>
-      </c>
-      <c r="D78" t="s">
         <v>129</v>
       </c>
-      <c r="E78" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" t="s">
-        <v>131</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>123</v>
+      </c>
+      <c r="F71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>130</v>
+      </c>
+      <c r="B79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="41.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>